--- a/docs/assets/disciplinas/LOB1263.xlsx
+++ b/docs/assets/disciplinas/LOB1263.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A disciplina visa apresentar aos estudantes o conceito, tipos, modelos e sistemas de eco-inovação para o desenvolvimento da capacidade analítica e propositiva como competências profissionais nas áreas de inovação e sustentabilidade.</t>
+    <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,10 +79,13 @@
     <t>The course aims to present to students the concept, types, models and systems of eco-innovation for the development of analytical and propositive capacity as professional competences in the areas of innovation and sustainability.</t>
   </si>
   <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>5840820 - Gustavo Aristides Santana Martinez</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Eco inovação. Métricas da eco-inovação. Introdução ao Ciclo de vida do produto. Eco inovação na indústria. Estudo de casos de projetos de eco-inovação no Brasil. Métodos e ferramentas suporte do processo de eco-inovação. Identificação antecipada de falha como suporte a eco-inovação. TRIZ como resposta a eco-inovação. Proposta metodológica para soluções eco-inovadoras.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>1. Eco-inovação: conceitos, fatores determinantes, barreiras, tipos de agentes eco-inovadores, categorias de eco inovações.2. Métricas da eco-inovação: métricas de Andersen, métricas de Arundel &amp; Kemp, métricas da OECD.3. Introdução ao Ciclo de vida do produto: perspectiva analítica, análise da cadeia de produção, práticas de Green Supply Chain Management.4. Eco inovação na indústria: química, agro alimentos, metal mecânica.5. Estudo de casos de projetos de eco inovação no Brasil.6. Métodos e ferramentas suporte do processo de eco-inovação: Eco-Compass, Eco-Ideation Tool, Value Mapping Tool, Design for Environment (DfE), EcoASIT, outros.7. Identificação antecipada de falha como suporte a eco-inovação: o problema, o cenário, os recursos.8. TRIZ como resposta a eco inovação: princípios inventivos, parâmetros de engenharia, matriz das contradições.9. Proposta metodológica para soluções eco inovadoras na categoria tecnologias: definir, medir, analisar, criar</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -483,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,97 +606,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1263.xlsx
+++ b/docs/assets/disciplinas/LOB1263.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,21 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A disciplina visa apresentar aos estudantes o conceito, tipos, modelos e sistemas de eco-inovação para o desenvolvimento da capacidade analítica e propositiva como competências profissionais nas áreas de inovação e sustentabilidade.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The course aims to present to students the concept, types, models and systems of eco-innovation for the development of analytical and propositive capacity as professional competences in the areas of innovation and sustainability.</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
     <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The course aims to present to students the concept, types, models and systems of eco-innovation for the development of analytical and propositive capacity as professional competences in the areas of innovation and sustainability.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Eco inovação. Métricas da eco-inovação. Introdução ao Ciclo de vida do produto. Eco inovação na indústria. Estudo de casos de projetos de eco-inovação no Brasil. Métodos e ferramentas suporte do processo de eco-inovação. Identificação antecipada de falha como suporte a eco-inovação. TRIZ como resposta a eco-inovação. Proposta metodológica para soluções eco-inovadoras.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>1. Eco-inovação: conceitos, fatores determinantes, barreiras, tipos de agentes eco-inovadores, categorias de eco inovações.2. Métricas da eco-inovação: métricas de Andersen, métricas de Arundel &amp; Kemp, métricas da OECD.3. Introdução ao Ciclo de vida do produto: perspectiva analítica, análise da cadeia de produção, práticas de Green Supply Chain Management.4. Eco inovação na indústria: química, agro alimentos, metal mecânica.5. Estudo de casos de projetos de eco inovação no Brasil.6. Métodos e ferramentas suporte do processo de eco-inovação: Eco-Compass, Eco-Ideation Tool, Value Mapping Tool, Design for Environment (DfE), EcoASIT, outros.7. Identificação antecipada de falha como suporte a eco-inovação: o problema, o cenário, os recursos.8. TRIZ como resposta a eco inovação: princípios inventivos, parâmetros de engenharia, matriz das contradições.9. Proposta metodológica para soluções eco inovadoras na categoria tecnologias: definir, medir, analisar, criar</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -480,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -606,102 +609,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
